--- a/Voie Mathis/prediction/WALKFORWARD_SupportVectorRegression_prediction_speed_30MIN.xlsx
+++ b/Voie Mathis/prediction/WALKFORWARD_SupportVectorRegression_prediction_speed_30MIN.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nronzoni/Desktop/Voie Mathis/prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A7BCE2-C13C-1449-8B14-216080E90863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65136BF-60E7-A442-91B5-A4C400B8D369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20-1-2020 morning" sheetId="1" r:id="rId1"/>
     <sheet name="22-1-2020 afternoon" sheetId="2" r:id="rId2"/>
-    <sheet name="27-2-2020 morning" sheetId="3" r:id="rId3"/>
-    <sheet name="27-3-2020 afternoon" sheetId="4" r:id="rId4"/>
-    <sheet name="25-7-2020 afternoon" sheetId="5" r:id="rId5"/>
+    <sheet name="24-1-2020 afternoon" sheetId="6" r:id="rId3"/>
+    <sheet name="27-2-2020 morning" sheetId="3" r:id="rId4"/>
+    <sheet name="27-3-2020 afternoon" sheetId="4" r:id="rId5"/>
+    <sheet name="22-07-2020 afternoon" sheetId="7" r:id="rId6"/>
+    <sheet name="25-7-2020 afternoon" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
   <si>
     <t>Cimiez Nord speed (km/h)</t>
   </si>
@@ -571,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1192,7 +1194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1808,6 +1812,627 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3D735-3597-E045-8E63-32D81B5C8A90}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>44.289537612970477</v>
+      </c>
+      <c r="C2">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>29.59142066764618</v>
+      </c>
+      <c r="E2">
+        <v>22.333333333333329</v>
+      </c>
+      <c r="F2">
+        <v>34.053645768093247</v>
+      </c>
+      <c r="G2">
+        <v>39.416666666666657</v>
+      </c>
+      <c r="H2">
+        <v>62.984686664196438</v>
+      </c>
+      <c r="I2">
+        <v>69.055555555555557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>56.793670498354793</v>
+      </c>
+      <c r="C3">
+        <v>32.666666666666657</v>
+      </c>
+      <c r="D3">
+        <v>25.8046805895471</v>
+      </c>
+      <c r="E3">
+        <v>23.666666666666671</v>
+      </c>
+      <c r="F3">
+        <v>40.857903395479781</v>
+      </c>
+      <c r="G3">
+        <v>35.916666666666657</v>
+      </c>
+      <c r="H3">
+        <v>55.575632710058812</v>
+      </c>
+      <c r="I3">
+        <v>68.277777777777771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>29.813423396504501</v>
+      </c>
+      <c r="C4">
+        <v>17.166666666666671</v>
+      </c>
+      <c r="D4">
+        <v>26.822225067538842</v>
+      </c>
+      <c r="E4">
+        <v>18.416666666666671</v>
+      </c>
+      <c r="F4">
+        <v>33.582706092109568</v>
+      </c>
+      <c r="G4">
+        <v>26.083333333333329</v>
+      </c>
+      <c r="H4">
+        <v>68.449311354039224</v>
+      </c>
+      <c r="I4">
+        <v>61.722222222222207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>22.167885456695259</v>
+      </c>
+      <c r="C5">
+        <v>14.91666666666667</v>
+      </c>
+      <c r="D5">
+        <v>12.79027250804411</v>
+      </c>
+      <c r="E5">
+        <v>17.333333333333329</v>
+      </c>
+      <c r="F5">
+        <v>37.140930835395132</v>
+      </c>
+      <c r="G5">
+        <v>20.666666666666671</v>
+      </c>
+      <c r="H5">
+        <v>64.761760527791722</v>
+      </c>
+      <c r="I5">
+        <v>69.555555555555557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>14.172403360021139</v>
+      </c>
+      <c r="C6">
+        <v>9.9166666666666661</v>
+      </c>
+      <c r="D6">
+        <v>19.067312817287551</v>
+      </c>
+      <c r="E6">
+        <v>12.58333333333333</v>
+      </c>
+      <c r="F6">
+        <v>36.599102478212878</v>
+      </c>
+      <c r="G6">
+        <v>19.5</v>
+      </c>
+      <c r="H6">
+        <v>65.669055198900793</v>
+      </c>
+      <c r="I6">
+        <v>69.6111111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>20.541922493406862</v>
+      </c>
+      <c r="C7">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="D7">
+        <v>15.11995149113957</v>
+      </c>
+      <c r="E7">
+        <v>16.666666666666671</v>
+      </c>
+      <c r="F7">
+        <v>30.29725176712989</v>
+      </c>
+      <c r="G7">
+        <v>18.5</v>
+      </c>
+      <c r="H7">
+        <v>67.21665912333485</v>
+      </c>
+      <c r="I7">
+        <v>65.833333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>24.04545790947224</v>
+      </c>
+      <c r="C8">
+        <v>10.5</v>
+      </c>
+      <c r="D8">
+        <v>10.70195673572727</v>
+      </c>
+      <c r="E8">
+        <v>16.666666666666671</v>
+      </c>
+      <c r="F8">
+        <v>24.0401903059532</v>
+      </c>
+      <c r="G8">
+        <v>14.91666666666667</v>
+      </c>
+      <c r="H8">
+        <v>64.071904937748627</v>
+      </c>
+      <c r="I8">
+        <v>67.555555555555557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>30.161343720551059</v>
+      </c>
+      <c r="C9">
+        <v>10.20833333333333</v>
+      </c>
+      <c r="D9">
+        <v>26.560595557745131</v>
+      </c>
+      <c r="E9">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="F9">
+        <v>34.608406916784993</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>58.289675168431849</v>
+      </c>
+      <c r="I9">
+        <v>68.222222222222229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>15.477896660270909</v>
+      </c>
+      <c r="C10">
+        <v>9.9166666666666661</v>
+      </c>
+      <c r="D10">
+        <v>19.171222513353651</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>28.011730676895009</v>
+      </c>
+      <c r="G10">
+        <v>27.333333333333329</v>
+      </c>
+      <c r="H10">
+        <v>70.129704116221689</v>
+      </c>
+      <c r="I10">
+        <v>64.444444444444443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>13.324210905549389</v>
+      </c>
+      <c r="C11">
+        <v>20.166666666666671</v>
+      </c>
+      <c r="D11">
+        <v>28.473111385285829</v>
+      </c>
+      <c r="E11">
+        <v>26.833333333333329</v>
+      </c>
+      <c r="F11">
+        <v>35.587367871517678</v>
+      </c>
+      <c r="G11">
+        <v>31.25</v>
+      </c>
+      <c r="H11">
+        <v>70.279357746982029</v>
+      </c>
+      <c r="I11">
+        <v>70.888888888888886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>32.063333460511927</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>24.005337351633958</v>
+      </c>
+      <c r="E12">
+        <v>28.25</v>
+      </c>
+      <c r="F12">
+        <v>26.056105737018338</v>
+      </c>
+      <c r="G12">
+        <v>29.75</v>
+      </c>
+      <c r="H12">
+        <v>71.082560643085003</v>
+      </c>
+      <c r="I12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>20.578194385917801</v>
+      </c>
+      <c r="C13">
+        <v>18.166666666666671</v>
+      </c>
+      <c r="D13">
+        <v>34.948811566132427</v>
+      </c>
+      <c r="E13">
+        <v>21.833333333333329</v>
+      </c>
+      <c r="F13">
+        <v>34.495646083232103</v>
+      </c>
+      <c r="G13">
+        <v>39.166666666666657</v>
+      </c>
+      <c r="H13">
+        <v>65.756409356142157</v>
+      </c>
+      <c r="I13">
+        <v>69.166666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>26.328689829008201</v>
+      </c>
+      <c r="C14">
+        <v>16.25</v>
+      </c>
+      <c r="D14">
+        <v>23.933588678405091</v>
+      </c>
+      <c r="E14">
+        <v>27.75</v>
+      </c>
+      <c r="F14">
+        <v>31.485446022291061</v>
+      </c>
+      <c r="G14">
+        <v>35.083333333333343</v>
+      </c>
+      <c r="H14">
+        <v>72.425747820539499</v>
+      </c>
+      <c r="I14">
+        <v>61.166666666666657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>21.44334720856261</v>
+      </c>
+      <c r="C15">
+        <v>13.91666666666667</v>
+      </c>
+      <c r="D15">
+        <v>24.718412505233729</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>32.957782472266729</v>
+      </c>
+      <c r="G15">
+        <v>39.583333333333343</v>
+      </c>
+      <c r="H15">
+        <v>62.458106120759851</v>
+      </c>
+      <c r="I15">
+        <v>67.555555555555557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>15.34950561794809</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>25.1795010237187</v>
+      </c>
+      <c r="E16">
+        <v>21.666666666666671</v>
+      </c>
+      <c r="F16">
+        <v>40.120449914200321</v>
+      </c>
+      <c r="G16">
+        <v>46.75</v>
+      </c>
+      <c r="H16">
+        <v>65.508056907753073</v>
+      </c>
+      <c r="I16">
+        <v>68.777777777777786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>17.291598935792582</v>
+      </c>
+      <c r="C17">
+        <v>16.333333333333339</v>
+      </c>
+      <c r="D17">
+        <v>26.298897065823059</v>
+      </c>
+      <c r="E17">
+        <v>28.666666666666671</v>
+      </c>
+      <c r="F17">
+        <v>40.842962568973967</v>
+      </c>
+      <c r="G17">
+        <v>45.333333333333343</v>
+      </c>
+      <c r="H17">
+        <v>65.267700257770116</v>
+      </c>
+      <c r="I17">
+        <v>68.444444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>19.02580099387098</v>
+      </c>
+      <c r="C18">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="D18">
+        <v>31.494383227522778</v>
+      </c>
+      <c r="E18">
+        <v>51.250000000000007</v>
+      </c>
+      <c r="F18">
+        <v>43.856618352380067</v>
+      </c>
+      <c r="G18">
+        <v>45.25</v>
+      </c>
+      <c r="H18">
+        <v>69.663681862518828</v>
+      </c>
+      <c r="I18">
+        <v>61.333333333333343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>25.316421170261059</v>
+      </c>
+      <c r="C19">
+        <v>53.166666666666657</v>
+      </c>
+      <c r="D19">
+        <v>39.913945066157808</v>
+      </c>
+      <c r="E19">
+        <v>38.416666666666657</v>
+      </c>
+      <c r="F19">
+        <v>42.580401501118018</v>
+      </c>
+      <c r="G19">
+        <v>41.583333333333343</v>
+      </c>
+      <c r="H19">
+        <v>66.632975388388473</v>
+      </c>
+      <c r="I19">
+        <v>67.166666666666657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>50.696122156977097</v>
+      </c>
+      <c r="C20">
+        <v>68.75</v>
+      </c>
+      <c r="D20">
+        <v>37.656577747178403</v>
+      </c>
+      <c r="E20">
+        <v>29.583333333333329</v>
+      </c>
+      <c r="F20">
+        <v>45.640136872650189</v>
+      </c>
+      <c r="G20">
+        <v>42.083333333333343</v>
+      </c>
+      <c r="H20">
+        <v>66.427413625901536</v>
+      </c>
+      <c r="I20">
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>66.715969286217785</v>
+      </c>
+      <c r="C21">
+        <v>59.416666666666657</v>
+      </c>
+      <c r="D21">
+        <v>25.899453173959181</v>
+      </c>
+      <c r="E21">
+        <v>38.416666666666657</v>
+      </c>
+      <c r="F21">
+        <v>44.313696788706977</v>
+      </c>
+      <c r="G21">
+        <v>42.583333333333343</v>
+      </c>
+      <c r="H21">
+        <v>67.654584004596231</v>
+      </c>
+      <c r="I21">
+        <v>62.44444444444445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -2426,7 +3051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -3045,7 +3670,628 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954778D2-176A-104D-9BF0-EB94642996D1}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>69.98194076559632</v>
+      </c>
+      <c r="C2">
+        <v>66.166666666666671</v>
+      </c>
+      <c r="D2">
+        <v>55.810103560771957</v>
+      </c>
+      <c r="E2">
+        <v>64.083333333333329</v>
+      </c>
+      <c r="F2">
+        <v>54.733916089948949</v>
+      </c>
+      <c r="G2">
+        <v>42.916666666666657</v>
+      </c>
+      <c r="H2">
+        <v>9.9184050241982629</v>
+      </c>
+      <c r="I2">
+        <v>13.055555555555561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>71.773981700487695</v>
+      </c>
+      <c r="C3">
+        <v>70.25</v>
+      </c>
+      <c r="D3">
+        <v>52.75411336447408</v>
+      </c>
+      <c r="E3">
+        <v>60.666666666666657</v>
+      </c>
+      <c r="F3">
+        <v>55.500697567036973</v>
+      </c>
+      <c r="G3">
+        <v>36.333333333333343</v>
+      </c>
+      <c r="H3">
+        <v>12.68337200365109</v>
+      </c>
+      <c r="I3">
+        <v>14.16666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>70.036891819457949</v>
+      </c>
+      <c r="C4">
+        <v>69.916666666666671</v>
+      </c>
+      <c r="D4">
+        <v>48.606453629189559</v>
+      </c>
+      <c r="E4">
+        <v>40.333333333333343</v>
+      </c>
+      <c r="F4">
+        <v>46.715368623823103</v>
+      </c>
+      <c r="G4">
+        <v>35.375</v>
+      </c>
+      <c r="H4">
+        <v>12.565035328362701</v>
+      </c>
+      <c r="I4">
+        <v>15.444444444444439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>76.319281519490659</v>
+      </c>
+      <c r="C5">
+        <v>69.416666666666671</v>
+      </c>
+      <c r="D5">
+        <v>34.31584630938714</v>
+      </c>
+      <c r="E5">
+        <v>45.58333333333335</v>
+      </c>
+      <c r="F5">
+        <v>40.982044166763693</v>
+      </c>
+      <c r="G5">
+        <v>34.416666666666657</v>
+      </c>
+      <c r="H5">
+        <v>21.108781703661641</v>
+      </c>
+      <c r="I5">
+        <v>21.666666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>62.630803345095728</v>
+      </c>
+      <c r="C6">
+        <v>70.75</v>
+      </c>
+      <c r="D6">
+        <v>38.380453088339451</v>
+      </c>
+      <c r="E6">
+        <v>26.5</v>
+      </c>
+      <c r="F6">
+        <v>37.379094807406247</v>
+      </c>
+      <c r="G6">
+        <v>31.083333333333329</v>
+      </c>
+      <c r="H6">
+        <v>24.986442092149389</v>
+      </c>
+      <c r="I6">
+        <v>18.666666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>72.659038523049901</v>
+      </c>
+      <c r="C7">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D7">
+        <v>29.40467451784567</v>
+      </c>
+      <c r="E7">
+        <v>44.583333333333343</v>
+      </c>
+      <c r="F7">
+        <v>39.501629883340598</v>
+      </c>
+      <c r="G7">
+        <v>40.333333333333343</v>
+      </c>
+      <c r="H7">
+        <v>24.362075568002449</v>
+      </c>
+      <c r="I7">
+        <v>13.388888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>61.361702037127699</v>
+      </c>
+      <c r="C8">
+        <v>63.916666666666657</v>
+      </c>
+      <c r="D8">
+        <v>46.644783907410712</v>
+      </c>
+      <c r="E8">
+        <v>34.666666666666657</v>
+      </c>
+      <c r="F8">
+        <v>46.54504940540226</v>
+      </c>
+      <c r="G8">
+        <v>35.5</v>
+      </c>
+      <c r="H8">
+        <v>15.172417545418339</v>
+      </c>
+      <c r="I8">
+        <v>12.444444444444439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>57.925608772974698</v>
+      </c>
+      <c r="C9">
+        <v>65.333333333333329</v>
+      </c>
+      <c r="D9">
+        <v>45.122556140689653</v>
+      </c>
+      <c r="E9">
+        <v>59.833333333333343</v>
+      </c>
+      <c r="F9">
+        <v>37.884145620087352</v>
+      </c>
+      <c r="G9">
+        <v>52.66666666666665</v>
+      </c>
+      <c r="H9">
+        <v>24.92292088713338</v>
+      </c>
+      <c r="I9">
+        <v>11.83333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>72.817880174088842</v>
+      </c>
+      <c r="C10">
+        <v>67.083333333333329</v>
+      </c>
+      <c r="D10">
+        <v>51.760604208309182</v>
+      </c>
+      <c r="E10">
+        <v>62.833333333333343</v>
+      </c>
+      <c r="F10">
+        <v>45.148268908043363</v>
+      </c>
+      <c r="G10">
+        <v>62.499999999999993</v>
+      </c>
+      <c r="H10">
+        <v>13.68639642120446</v>
+      </c>
+      <c r="I10">
+        <v>16.611111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>84.170794802176644</v>
+      </c>
+      <c r="C11">
+        <v>61.083333333333343</v>
+      </c>
+      <c r="D11">
+        <v>39.68003058892689</v>
+      </c>
+      <c r="E11">
+        <v>63.416666666666657</v>
+      </c>
+      <c r="F11">
+        <v>50.649717872851383</v>
+      </c>
+      <c r="G11">
+        <v>53.66666666666665</v>
+      </c>
+      <c r="H11">
+        <v>7.4083161078103554</v>
+      </c>
+      <c r="I11">
+        <v>14.27777777777778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>70.49709314739826</v>
+      </c>
+      <c r="C12">
+        <v>66.333333333333329</v>
+      </c>
+      <c r="D12">
+        <v>65.304235725147677</v>
+      </c>
+      <c r="E12">
+        <v>59.666666666666657</v>
+      </c>
+      <c r="F12">
+        <v>59.227614880771959</v>
+      </c>
+      <c r="G12">
+        <v>62.66666666666665</v>
+      </c>
+      <c r="H12">
+        <v>14.54553809382393</v>
+      </c>
+      <c r="I12">
+        <v>12.888888888888889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>66.856733226494569</v>
+      </c>
+      <c r="C13">
+        <v>68.75</v>
+      </c>
+      <c r="D13">
+        <v>48.336386734049142</v>
+      </c>
+      <c r="E13">
+        <v>59.25</v>
+      </c>
+      <c r="F13">
+        <v>61.766335788055983</v>
+      </c>
+      <c r="G13">
+        <v>52.333333333333343</v>
+      </c>
+      <c r="H13">
+        <v>24.898776433180139</v>
+      </c>
+      <c r="I13">
+        <v>13.22222222222222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>68.728025019655462</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>61.256677149958684</v>
+      </c>
+      <c r="E14">
+        <v>58.916666666666657</v>
+      </c>
+      <c r="F14">
+        <v>59.65961089205409</v>
+      </c>
+      <c r="G14">
+        <v>37.083333333333343</v>
+      </c>
+      <c r="H14">
+        <v>14.32574126583542</v>
+      </c>
+      <c r="I14">
+        <v>15.22222222222222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>72.196095106740202</v>
+      </c>
+      <c r="C15">
+        <v>71.833333333333329</v>
+      </c>
+      <c r="D15">
+        <v>57.561017118637352</v>
+      </c>
+      <c r="E15">
+        <v>58.416666666666657</v>
+      </c>
+      <c r="F15">
+        <v>59.587874270929539</v>
+      </c>
+      <c r="G15">
+        <v>52.833333333333343</v>
+      </c>
+      <c r="H15">
+        <v>19.294572905304321</v>
+      </c>
+      <c r="I15">
+        <v>14.66666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>67.983882237788805</v>
+      </c>
+      <c r="C16">
+        <v>60.916666666666657</v>
+      </c>
+      <c r="D16">
+        <v>54.184237127746407</v>
+      </c>
+      <c r="E16">
+        <v>55.333333333333343</v>
+      </c>
+      <c r="F16">
+        <v>54.159860598174767</v>
+      </c>
+      <c r="G16">
+        <v>63.91666666666665</v>
+      </c>
+      <c r="H16">
+        <v>39.490226288395249</v>
+      </c>
+      <c r="I16">
+        <v>12.77777777777778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>70.597165293419422</v>
+      </c>
+      <c r="C17">
+        <v>66.833333333333329</v>
+      </c>
+      <c r="D17">
+        <v>46.153698003052689</v>
+      </c>
+      <c r="E17">
+        <v>55.25</v>
+      </c>
+      <c r="F17">
+        <v>59.390051039408782</v>
+      </c>
+      <c r="G17">
+        <v>61.500000000000007</v>
+      </c>
+      <c r="H17">
+        <v>14.49511702959653</v>
+      </c>
+      <c r="I17">
+        <v>12.166666666666661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>71.184756029699045</v>
+      </c>
+      <c r="C18">
+        <v>71.25</v>
+      </c>
+      <c r="D18">
+        <v>47.575622229798348</v>
+      </c>
+      <c r="E18">
+        <v>64.416666666666671</v>
+      </c>
+      <c r="F18">
+        <v>64.621163375797835</v>
+      </c>
+      <c r="G18">
+        <v>58.749999999999993</v>
+      </c>
+      <c r="H18">
+        <v>12.27899281824214</v>
+      </c>
+      <c r="I18">
+        <v>14.16666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>70.072930839903364</v>
+      </c>
+      <c r="C19">
+        <v>71.833333333333329</v>
+      </c>
+      <c r="D19">
+        <v>57.318029874508049</v>
+      </c>
+      <c r="E19">
+        <v>56.75</v>
+      </c>
+      <c r="F19">
+        <v>62.351571591444753</v>
+      </c>
+      <c r="G19">
+        <v>53.499999999999993</v>
+      </c>
+      <c r="H19">
+        <v>10.357224603818089</v>
+      </c>
+      <c r="I19">
+        <v>11.83333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>71.987346300336142</v>
+      </c>
+      <c r="C20">
+        <v>73.75</v>
+      </c>
+      <c r="D20">
+        <v>58.388418423989457</v>
+      </c>
+      <c r="E20">
+        <v>66.916666666666671</v>
+      </c>
+      <c r="F20">
+        <v>59.937483619471827</v>
+      </c>
+      <c r="G20">
+        <v>59.333333333333343</v>
+      </c>
+      <c r="H20">
+        <v>14.50219870544532</v>
+      </c>
+      <c r="I20">
+        <v>15.27777777777778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>73.010626903554225</v>
+      </c>
+      <c r="C21">
+        <v>71.916666666666671</v>
+      </c>
+      <c r="D21">
+        <v>59.812585758254059</v>
+      </c>
+      <c r="E21">
+        <v>63.25</v>
+      </c>
+      <c r="F21">
+        <v>58.747659019500027</v>
+      </c>
+      <c r="G21">
+        <v>59.333333333333343</v>
+      </c>
+      <c r="H21">
+        <v>16.577167459911578</v>
+      </c>
+      <c r="I21">
+        <v>15.111111111111111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
